--- a/Dico données (1) (1).xlsx
+++ b/Dico données (1) (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="80">
   <si>
     <t>ID_potion</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Degree_ingredient</t>
+  </si>
+  <si>
+    <t>Quantite_onguent</t>
   </si>
 </sst>
 </file>
@@ -736,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,47 +1349,47 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>74</v>
@@ -1397,47 +1400,47 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>74</v>
@@ -1448,44 +1451,44 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>55</v>
@@ -1499,13 +1502,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>74</v>
@@ -1516,7 +1519,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>74</v>
@@ -1533,13 +1536,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>74</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>74</v>
@@ -1562,23 +1565,40 @@
         <v>74</v>
       </c>
       <c r="E48" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="6" t="s">
+      <c r="B50" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" s="7" t="s">
+      <c r="D50" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>62</v>
       </c>
     </row>

--- a/Dico données (1) (1).xlsx
+++ b/Dico données (1) (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="78">
   <si>
     <t>ID_potion</t>
   </si>
@@ -176,13 +176,7 @@
     <t xml:space="preserve">seuil de péremption </t>
   </si>
   <si>
-    <t>Ingredient_fraicheur</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prix unitaire onguent </t>
-  </si>
-  <si>
-    <t>ingrédient dans la table fraicheur</t>
   </si>
   <si>
     <t>PRIMARY KEY</t>
@@ -383,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -397,6 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,13 +774,13 @@
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -796,13 +791,13 @@
         <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -813,13 +808,13 @@
         <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -830,13 +825,13 @@
         <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -844,16 +839,16 @@
         <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -861,16 +856,16 @@
         <v>34</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -878,16 +873,16 @@
         <v>41</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -895,16 +890,16 @@
         <v>42</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -915,13 +910,13 @@
         <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -932,13 +927,13 @@
         <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -949,13 +944,13 @@
         <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -963,48 +958,48 @@
         <v>8</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1012,16 +1007,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,16 +1024,16 @@
         <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1046,33 +1041,33 @@
         <v>11</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1080,16 +1075,16 @@
         <v>46</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1097,33 +1092,33 @@
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,16 +1126,16 @@
         <v>48</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1151,13 +1146,13 @@
         <v>49</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1168,13 +1163,13 @@
         <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1185,421 +1180,404 @@
         <v>45</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="E26" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>62</v>
+      <c r="D27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>62</v>
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>74</v>
+        <v>20</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>77</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>62</v>
+      <c r="A49" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Dico données (1) (1).xlsx
+++ b/Dico données (1) (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="79">
   <si>
     <t>ID_potion</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Quantite_onguent</t>
+  </si>
+  <si>
+    <t>Quantite_stock</t>
   </si>
 </sst>
 </file>
@@ -734,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,90 +958,90 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="D15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="D16" s="8"/>
       <c r="E16" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>72</v>
@@ -1054,51 +1057,51 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>60</v>
@@ -1106,78 +1109,78 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>72</v>
+        <v>54</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="D24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>54</v>
@@ -1190,59 +1193,59 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="B28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>59</v>
+      <c r="E28" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>72</v>
@@ -1259,13 +1262,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>72</v>
@@ -1276,47 +1279,47 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>72</v>
@@ -1327,10 +1330,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>72</v>
+        <v>20</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>52</v>
@@ -1344,47 +1347,47 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>72</v>
@@ -1395,47 +1398,47 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>72</v>
@@ -1446,44 +1449,44 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>53</v>
@@ -1497,13 +1500,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>72</v>
@@ -1514,7 +1517,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>72</v>
@@ -1531,13 +1534,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>72</v>
@@ -1548,7 +1551,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>72</v>
@@ -1560,23 +1563,40 @@
         <v>72</v>
       </c>
       <c r="E48" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="6" t="s">
+      <c r="B50" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="7" t="s">
+      <c r="D50" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Dico données (1) (1).xlsx
+++ b/Dico données (1) (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="81">
   <si>
     <t>ID_potion</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>Quantite_stock</t>
+  </si>
+  <si>
+    <t>Recette_potion</t>
+  </si>
+  <si>
+    <t># somme de ingrédients</t>
   </si>
 </sst>
 </file>
@@ -284,7 +290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,12 +300,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -390,11 +390,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,95 +837,95 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>51</v>
+      <c r="C6" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>52</v>
@@ -941,10 +939,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>52</v>
@@ -953,15 +951,15 @@
         <v>72</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>72</v>
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>52</v>
@@ -975,90 +973,90 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="D16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="B17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="D17" s="8"/>
       <c r="E17" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>72</v>
@@ -1074,51 +1072,51 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>60</v>
@@ -1126,143 +1124,143 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>72</v>
+        <v>54</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="D25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="E26" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E27" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E28" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="B29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D29" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>59</v>
+      <c r="E29" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>72</v>
@@ -1279,13 +1277,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>72</v>
@@ -1296,47 +1294,47 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>72</v>
@@ -1347,10 +1345,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>72</v>
+        <v>20</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>52</v>
@@ -1364,47 +1362,47 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>72</v>
@@ -1415,47 +1413,47 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>72</v>
@@ -1466,44 +1464,44 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>53</v>
@@ -1517,13 +1515,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>72</v>
@@ -1534,7 +1532,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>72</v>
@@ -1551,13 +1549,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>72</v>
@@ -1568,7 +1566,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>72</v>
@@ -1580,23 +1578,40 @@
         <v>72</v>
       </c>
       <c r="E49" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="6" t="s">
+      <c r="B51" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="7" t="s">
+      <c r="D51" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Dico données (1) (1).xlsx
+++ b/Dico données (1) (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="80">
   <si>
     <t>ID_potion</t>
   </si>
@@ -261,9 +261,6 @@
   </si>
   <si>
     <t>Quantite_stock</t>
-  </si>
-  <si>
-    <t>Recette_potion</t>
   </si>
   <si>
     <t># somme de ingrédients</t>
@@ -735,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,95 +834,95 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>72</v>
+        <v>43</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>52</v>
@@ -939,10 +936,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>52</v>
@@ -951,15 +948,15 @@
         <v>72</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>78</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>52</v>
@@ -973,90 +970,90 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>72</v>
@@ -1072,51 +1069,51 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
+      <c r="A20" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>12</v>
+      <c r="A21" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>72</v>
+        <v>54</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>60</v>
@@ -1124,78 +1121,78 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="D25" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>54</v>
@@ -1209,58 +1206,58 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E28" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>72</v>
@@ -1277,13 +1274,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>72</v>
@@ -1294,47 +1291,47 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>72</v>
+        <v>20</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>72</v>
@@ -1345,10 +1342,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>50</v>
+        <v>77</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>52</v>
@@ -1362,47 +1359,47 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>72</v>
@@ -1413,47 +1410,47 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>72</v>
@@ -1464,44 +1461,44 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>53</v>
@@ -1515,13 +1512,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>72</v>
@@ -1532,7 +1529,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>72</v>
@@ -1549,13 +1546,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>72</v>
@@ -1566,7 +1563,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>72</v>
@@ -1578,40 +1575,23 @@
         <v>72</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A50" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="B50" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="7" t="s">
+      <c r="D50" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Dico données (1) (1).xlsx
+++ b/Dico données (1) (1).xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="80">
-  <si>
-    <t>ID_potion</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="59">
   <si>
     <t xml:space="preserve">Nom </t>
   </si>
@@ -41,21 +38,9 @@
     <t>contrainte</t>
   </si>
   <si>
-    <t>Nom_potion</t>
-  </si>
-  <si>
     <t>commentaire</t>
   </si>
   <si>
-    <t>Prix_potion</t>
-  </si>
-  <si>
-    <t>ID_recipient</t>
-  </si>
-  <si>
-    <t>ID_inventeur</t>
-  </si>
-  <si>
     <t>Nom_inventeur</t>
   </si>
   <si>
@@ -65,120 +50,27 @@
     <t>ID_commande</t>
   </si>
   <si>
-    <t>Date_commande</t>
-  </si>
-  <si>
-    <t>Seuil_fraicheur</t>
-  </si>
-  <si>
-    <t>Prenom_client</t>
-  </si>
-  <si>
     <t>ID_client</t>
   </si>
   <si>
-    <t>Nom_client</t>
-  </si>
-  <si>
-    <t>ID_onguent</t>
-  </si>
-  <si>
-    <t>Nom_onguent</t>
-  </si>
-  <si>
-    <t>Prix_onguent</t>
-  </si>
-  <si>
-    <t>ID_entreprise</t>
-  </si>
-  <si>
-    <t>ID_fournisseur</t>
-  </si>
-  <si>
     <t>Nom_fournisseur</t>
   </si>
   <si>
     <t>Mail_fournisseur</t>
   </si>
   <si>
-    <t>Nom_entreprise</t>
-  </si>
-  <si>
-    <t>Numero_siret</t>
-  </si>
-  <si>
-    <t>Mail_client</t>
-  </si>
-  <si>
-    <t>Entree_fraicheur</t>
-  </si>
-  <si>
-    <t>Sortie_fraicheur</t>
-  </si>
-  <si>
     <t>Identifiant potion</t>
   </si>
   <si>
-    <t>Nom de la potion</t>
-  </si>
-  <si>
-    <t>Prix unitaire</t>
-  </si>
-  <si>
-    <t>ID_Diluant</t>
-  </si>
-  <si>
-    <t>Nom_Diluant</t>
-  </si>
-  <si>
-    <t>Quantité unitaire ingredient</t>
-  </si>
-  <si>
     <t>Temperature en degré</t>
   </si>
   <si>
     <t>Quantite_ingredient</t>
   </si>
   <si>
-    <t>Quantite_potion</t>
-  </si>
-  <si>
-    <t>quantite unitaire</t>
-  </si>
-  <si>
-    <t>prix unitaire</t>
-  </si>
-  <si>
-    <t>ID_ingredient</t>
-  </si>
-  <si>
-    <t>Nom_ingredient</t>
-  </si>
-  <si>
-    <t>prix_ingredient</t>
-  </si>
-  <si>
-    <t>date d'entrée de l'ingrédient</t>
-  </si>
-  <si>
-    <t>date de sortie de l'ingrédient</t>
-  </si>
-  <si>
-    <t>Num_commande</t>
-  </si>
-  <si>
     <t>Temperature_ingredient</t>
   </si>
   <si>
-    <t>ID_fraicheur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seuil de péremption </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prix unitaire onguent </t>
-  </si>
-  <si>
     <t>PRIMARY KEY</t>
   </si>
   <si>
@@ -194,15 +86,6 @@
     <t>Alphanumérique</t>
   </si>
   <si>
-    <t>format : YY/YY/YYYY</t>
-  </si>
-  <si>
-    <t>Prix_commande</t>
-  </si>
-  <si>
-    <t>Type_recipient</t>
-  </si>
-  <si>
     <t>Automatique</t>
   </si>
   <si>
@@ -212,58 +95,112 @@
     <t>Default 0</t>
   </si>
   <si>
-    <t>ID_utilisateur</t>
-  </si>
-  <si>
-    <t>Nom_utilisateur</t>
-  </si>
-  <si>
-    <t>Prenom_utilisateur</t>
-  </si>
-  <si>
-    <t>Addresse_utilisateur</t>
-  </si>
-  <si>
-    <t>Mail_utilisateur</t>
-  </si>
-  <si>
-    <t>Tel_utilisateur</t>
-  </si>
-  <si>
-    <t>Nom de l'utilisateur du site</t>
-  </si>
-  <si>
     <t>Somme(Prix_potion * Quantite_potion)</t>
   </si>
   <si>
     <t>Etat</t>
   </si>
   <si>
-    <t>ID_etat</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
-    <t>prix_recipient</t>
-  </si>
-  <si>
-    <t>numérique</t>
-  </si>
-  <si>
-    <t>DEGREE</t>
-  </si>
-  <si>
-    <t>Degree_ingredient</t>
-  </si>
-  <si>
-    <t>Quantite_onguent</t>
-  </si>
-  <si>
     <t>Quantite_stock</t>
   </si>
   <si>
-    <t># somme de ingrédients</t>
+    <t>Id_potion</t>
+  </si>
+  <si>
+    <t>Temperature_potion</t>
+  </si>
+  <si>
+    <t>Id_diluant</t>
+  </si>
+  <si>
+    <t>TYpe_diluant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># </t>
+  </si>
+  <si>
+    <t>Id_ingredient</t>
+  </si>
+  <si>
+    <t>degree_ingredient</t>
+  </si>
+  <si>
+    <t>seuil_ingredient</t>
+  </si>
+  <si>
+    <t>Id_stock</t>
+  </si>
+  <si>
+    <t>Date_Arrivee</t>
+  </si>
+  <si>
+    <t>quantite</t>
+  </si>
+  <si>
+    <t>Date_sortie</t>
+  </si>
+  <si>
+    <t>Id_inventeur</t>
+  </si>
+  <si>
+    <t>Numero_commande</t>
+  </si>
+  <si>
+    <t>date_commande</t>
+  </si>
+  <si>
+    <t>prix_commande</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Id_produit</t>
+  </si>
+  <si>
+    <t>Prix_produit</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>format : YYYY/YY/YY</t>
+  </si>
+  <si>
+    <t>Id_fournisseur</t>
+  </si>
+  <si>
+    <t>ID_proposition</t>
+  </si>
+  <si>
+    <t>statue</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Nom_potion_propo</t>
+  </si>
+  <si>
+    <t>Id_particulier</t>
+  </si>
+  <si>
+    <t>mail_part</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>Id_etat</t>
+  </si>
+  <si>
+    <t>Id_onguent</t>
+  </si>
+  <si>
+    <t>Id_recipient</t>
   </si>
 </sst>
 </file>
@@ -377,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -390,6 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,851 +687,664 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>72</v>
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>72</v>
+        <v>35</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
+      <c r="A14" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>25</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>73</v>
+      <c r="A16" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="E16" s="4" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>10</v>
+      <c r="A18" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>12</v>
+      <c r="A20" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>72</v>
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>56</v>
+        <v>15</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>57</v>
+      <c r="A23" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>48</v>
+      <c r="A24" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>51</v>
+        <v>25</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>59</v>
+        <v>25</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="B28" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>60</v>
+        <v>25</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D30" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D31" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>60</v>
+        <v>25</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>72</v>
+        <v>54</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="A39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dico données (1) (1).xlsx
+++ b/Dico données (1) (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="57">
   <si>
     <t xml:space="preserve">Nom </t>
   </si>
@@ -68,9 +68,6 @@
     <t>Quantite_ingredient</t>
   </si>
   <si>
-    <t>Temperature_ingredient</t>
-  </si>
-  <si>
     <t>PRIMARY KEY</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
   </si>
   <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>Quantite_stock</t>
   </si>
   <si>
     <t>Id_potion</t>
@@ -670,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,189 +698,189 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -894,98 +888,98 @@
         <v>37</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
+      <c r="A16" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>25</v>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>20</v>
@@ -996,166 +990,166 @@
         <v>40</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="B21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>45</v>
+      <c r="A24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>46</v>
+        <v>24</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>48</v>
+      <c r="A25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>20</v>
@@ -1163,188 +1157,154 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>25</v>
+      <c r="B30" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="A37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="7"/>
+      <c r="D37" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
